--- a/company/lyft/lyft-freq.xlsx
+++ b/company/lyft/lyft-freq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/lyft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FAA756-BE3C-764C-B83C-C81696EBBBE9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A3E4C6-B245-E14B-A244-9845D6A307DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47560" yWindow="2820" windowWidth="22420" windowHeight="18100" xr2:uid="{E083BCA1-116D-FE4F-8F8A-D54DCBD9886C}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/company/lyft/lyft-freq.xlsx
+++ b/company/lyft/lyft-freq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/lyft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A3E4C6-B245-E14B-A244-9845D6A307DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E750D90E-7DCD-124F-8E6D-89DC2A2E9850}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47560" yWindow="2820" windowWidth="22420" windowHeight="18100" xr2:uid="{E083BCA1-116D-FE4F-8F8A-D54DCBD9886C}"/>
+    <workbookView xWindow="2860" yWindow="460" windowWidth="20620" windowHeight="13320" xr2:uid="{E083BCA1-116D-FE4F-8F8A-D54DCBD9886C}"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithm" sheetId="1" r:id="rId1"/>
@@ -627,7 +627,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/company/lyft/lyft-freq.xlsx
+++ b/company/lyft/lyft-freq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/lyft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E750D90E-7DCD-124F-8E6D-89DC2A2E9850}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A701FD2-6BE2-4340-BE95-3480D6AAF51D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="460" windowWidth="20620" windowHeight="13320" xr2:uid="{E083BCA1-116D-FE4F-8F8A-D54DCBD9886C}"/>
+    <workbookView xWindow="50920" yWindow="6360" windowWidth="20620" windowHeight="13320" xr2:uid="{E083BCA1-116D-FE4F-8F8A-D54DCBD9886C}"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithm" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
   <si>
     <t>Description</t>
   </si>
@@ -259,6 +259,9 @@
   <si>
     <t xml:space="preserve">	
 String to Integer (atoi)    </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/discuss/interview-question/352049/Lyft-or-Phone-Screen-or-Intersection-Iterator</t>
   </si>
 </sst>
 </file>
@@ -627,7 +630,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,7 +638,7 @@
     <col min="1" max="1" width="36.33203125" customWidth="1"/>
     <col min="3" max="3" width="46.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.1640625" customWidth="1"/>
-    <col min="6" max="6" width="95.83203125" customWidth="1"/>
+    <col min="6" max="6" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -775,6 +778,9 @@
       </c>
       <c r="F11" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1025,6 +1031,7 @@
     <hyperlink ref="E28" r:id="rId15" xr:uid="{0CC9724E-BCF0-5145-A9F1-32375015C40E}"/>
     <hyperlink ref="E29" r:id="rId16" xr:uid="{D1574C09-D35A-0144-8911-5F491503A0B3}"/>
     <hyperlink ref="E30" r:id="rId17" xr:uid="{DCB6AD90-704A-F949-90CE-D5B30B32224A}"/>
+    <hyperlink ref="G11" r:id="rId18" xr:uid="{43845907-40B3-6649-BF8E-520789A2D784}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/company/lyft/lyft-freq.xlsx
+++ b/company/lyft/lyft-freq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/lyft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A701FD2-6BE2-4340-BE95-3480D6AAF51D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E816D57-6296-1F44-A962-62D164F1229E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50920" yWindow="6360" windowWidth="20620" windowHeight="13320" xr2:uid="{E083BCA1-116D-FE4F-8F8A-D54DCBD9886C}"/>
+    <workbookView xWindow="45000" yWindow="8080" windowWidth="20620" windowHeight="13320" xr2:uid="{E083BCA1-116D-FE4F-8F8A-D54DCBD9886C}"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithm" sheetId="1" r:id="rId1"/>
@@ -630,7 +630,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -660,149 +660,149 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2">
-        <v>716</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3">
-        <v>642</v>
+        <v>716</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4">
-        <v>7</v>
+        <v>642</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6">
+        <v>238</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7">
         <v>68</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>981</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>158</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>333</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10">
+        <v>333</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11">
         <v>157</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>127</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1014,10 +1014,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{D3E215AF-75CB-3E4C-B5DF-E53CF2D64914}"/>
-    <hyperlink ref="F11" r:id="rId2" xr:uid="{27E97AFA-12E2-EB44-92CC-ACE61B69882B}"/>
-    <hyperlink ref="E11" r:id="rId3" xr:uid="{0B37C351-976A-844F-B55C-A0414D8C6587}"/>
-    <hyperlink ref="E12" r:id="rId4" xr:uid="{DA022242-8963-5B40-A66B-9EA43058038E}"/>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{D3E215AF-75CB-3E4C-B5DF-E53CF2D64914}"/>
+    <hyperlink ref="F12" r:id="rId2" xr:uid="{27E97AFA-12E2-EB44-92CC-ACE61B69882B}"/>
+    <hyperlink ref="E12" r:id="rId3" xr:uid="{0B37C351-976A-844F-B55C-A0414D8C6587}"/>
+    <hyperlink ref="E13" r:id="rId4" xr:uid="{DA022242-8963-5B40-A66B-9EA43058038E}"/>
     <hyperlink ref="E15" r:id="rId5" xr:uid="{71EC1142-3BF8-B047-B5ED-7903B52449D4}"/>
     <hyperlink ref="E14" r:id="rId6" xr:uid="{8C0AF4B1-C50F-0D40-93A3-FCC209B9A9A7}"/>
     <hyperlink ref="E16" r:id="rId7" xr:uid="{00F0F239-D3D5-5C48-AD5B-C18AB409F297}"/>
@@ -1031,7 +1031,7 @@
     <hyperlink ref="E28" r:id="rId15" xr:uid="{0CC9724E-BCF0-5145-A9F1-32375015C40E}"/>
     <hyperlink ref="E29" r:id="rId16" xr:uid="{D1574C09-D35A-0144-8911-5F491503A0B3}"/>
     <hyperlink ref="E30" r:id="rId17" xr:uid="{DCB6AD90-704A-F949-90CE-D5B30B32224A}"/>
-    <hyperlink ref="G11" r:id="rId18" xr:uid="{43845907-40B3-6649-BF8E-520789A2D784}"/>
+    <hyperlink ref="G12" r:id="rId18" xr:uid="{43845907-40B3-6649-BF8E-520789A2D784}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/company/lyft/lyft-freq.xlsx
+++ b/company/lyft/lyft-freq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/lyft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E816D57-6296-1F44-A962-62D164F1229E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA3413E-944E-2E4E-89B2-4AD9C819F684}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45000" yWindow="8080" windowWidth="20620" windowHeight="13320" xr2:uid="{E083BCA1-116D-FE4F-8F8A-D54DCBD9886C}"/>
+    <workbookView xWindow="89140" yWindow="7520" windowWidth="20620" windowHeight="13320" xr2:uid="{E083BCA1-116D-FE4F-8F8A-D54DCBD9886C}"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithm" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
   <si>
     <t>Description</t>
   </si>
@@ -262,6 +262,18 @@
   </si>
   <si>
     <t>https://leetcode.com/discuss/interview-question/352049/Lyft-or-Phone-Screen-or-Intersection-Iterator</t>
+  </si>
+  <si>
+    <t>http://blog.gainlo.co/index.php/2016/06/29/build-web-crawler/</t>
+  </si>
+  <si>
+    <t>https://hackernoon.com/how-to-build-a-web-based-donation-manager-system-from-scratch-in-php-mysql-f276e6a16ac3</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/discuss/interview-question/system-design/124657/design-a-distributed-web-crawler-that-will-crawl-all-the-pages-of-wikipedia</t>
+  </si>
+  <si>
+    <t>https://massivetechinterview.blogspot.com/2015/06/design-web-crawler.html</t>
   </si>
 </sst>
 </file>
@@ -630,7 +642,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -660,57 +672,57 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2">
-        <v>127</v>
+        <v>238</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3">
-        <v>716</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4">
-        <v>642</v>
+        <v>716</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>7</v>
+        <v>642</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1039,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9CB96A-AF90-6847-AB32-E99DC9E61C5B}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1051,7 +1063,7 @@
     <col min="3" max="3" width="52.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1078,8 +1090,11 @@
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1090,7 +1105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1104,7 +1119,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1115,7 +1130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1126,7 +1141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1140,7 +1155,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -1151,7 +1166,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1162,7 +1177,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1175,8 +1190,17 @@
       <c r="D10" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1187,7 +1211,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -1198,7 +1222,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -1209,7 +1233,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1220,7 +1244,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -1231,7 +1255,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -1264,6 +1288,10 @@
     <hyperlink ref="C14" r:id="rId18" xr:uid="{74C455B3-EE49-0F4B-99F2-D2DECDB22014}"/>
     <hyperlink ref="C15" r:id="rId19" xr:uid="{FB30A275-6C60-9848-9A3C-FD73A7417793}"/>
     <hyperlink ref="C16" r:id="rId20" xr:uid="{8E5311CD-57D9-3649-9167-DA794EF9B76D}"/>
+    <hyperlink ref="E10" r:id="rId21" xr:uid="{5DC2DF0A-7DB5-EF47-BA82-1DFEB9E7416B}"/>
+    <hyperlink ref="F2" r:id="rId22" xr:uid="{EC9B82AB-5815-BD4A-8018-5C608D95DFF4}"/>
+    <hyperlink ref="F10" r:id="rId23" xr:uid="{95ECDDEF-9636-4941-9F4A-1C4FA5176031}"/>
+    <hyperlink ref="G10" r:id="rId24" xr:uid="{570FF375-1679-8542-991B-A2C902C406F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/company/lyft/lyft-freq.xlsx
+++ b/company/lyft/lyft-freq.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/lyft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA3413E-944E-2E4E-89B2-4AD9C819F684}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7791DC1D-4E30-594F-A946-58C0226A62F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="89140" yWindow="7520" windowWidth="20620" windowHeight="13320" xr2:uid="{E083BCA1-116D-FE4F-8F8A-D54DCBD9886C}"/>
+    <workbookView xWindow="8440" yWindow="460" windowWidth="16920" windowHeight="14180" xr2:uid="{E083BCA1-116D-FE4F-8F8A-D54DCBD9886C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Algorithm" sheetId="1" r:id="rId1"/>
-    <sheet name="Design" sheetId="2" r:id="rId2"/>
+    <sheet name="Onsite" sheetId="4" r:id="rId1"/>
+    <sheet name="上机" sheetId="3" r:id="rId2"/>
+    <sheet name="Design" sheetId="2" r:id="rId3"/>
+    <sheet name="Algorithm" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="130">
   <si>
     <t>Description</t>
   </si>
@@ -124,9 +126,6 @@
     <t xml:space="preserve">Word Ladder </t>
   </si>
   <si>
-    <t>multistream class</t>
-  </si>
-  <si>
     <t>设计高速公路上的实时路况牌</t>
   </si>
   <si>
@@ -155,9 +154,6 @@
   </si>
   <si>
     <t>https://www.1point3acres.com/bbs/thread-528960-1-1.html</t>
-  </si>
-  <si>
-    <t>设计metrics collector</t>
   </si>
   <si>
     <t>https://www.1point3acres.com/bbs/thread-528620-1-1.html</t>
@@ -274,13 +270,169 @@
   </si>
   <si>
     <t>https://massivetechinterview.blogspot.com/2015/06/design-web-crawler.html</t>
+  </si>
+  <si>
+    <t>https://blog.51cto.com/xpleaf/2093952</t>
+  </si>
+  <si>
+    <t>https://cloud.tencent.com/info/5629d6e3ab730cb3643ea87d647dc772.html</t>
+  </si>
+  <si>
+    <t>MultiStream</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-545280-1-1.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Stack  </t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-545172-1-1.html</t>
+  </si>
+  <si>
+    <t>min steps to get target</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-544215-1-1.html</t>
+  </si>
+  <si>
+    <t>https://massivealgorithms.blogspot.com/2016/02/buttercola-indeed-n-ary-tree-root-to.html</t>
+  </si>
+  <si>
+    <t>https://medium.com/system-design-blog/event-driven-architecture-445e4e1354b2</t>
+  </si>
+  <si>
+    <t>https://www.datadoghq.com/blog/tag/architecture/</t>
+  </si>
+  <si>
+    <t>https://developer.lightbend.com/guides/monitoring-at-scale/monitoring-architecture/architecture.html</t>
+  </si>
+  <si>
+    <t>设计metrics collector(same as event emitter?)</t>
+  </si>
+  <si>
+    <t>https://www.voucherify.io/blog/building-a-solid-coupon-infrastructure</t>
+  </si>
+  <si>
+    <t>UUID is important to make coupon id unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Decode Ways  </t>
+  </si>
+  <si>
+    <t>设计一个 传感器数据的查询系统，基本功能是提供时间范围查询， 文件id 查询等等</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-546233-1-1.html</t>
+  </si>
+  <si>
+    <t>Autocomplete</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>没刷题网那道难，不用实现更新推荐，建个trie就好</t>
+  </si>
+  <si>
+    <t>follow up是有很多连续的duplicated data怎么存，我说的是存frequency</t>
+  </si>
+  <si>
+    <t>Leetcode 981</t>
+  </si>
+  <si>
+    <t>给两个iterator指向sorted array，实现一个iterator给下一个在两个数组里面的共同元素</t>
+  </si>
+  <si>
+    <t>multistream class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要求是有tie时优先选择worker id最低的 worker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product of Array Except Self </t>
+  </si>
+  <si>
+    <t>follow up: bfs和dfs的区别和优缺点？（复杂度都是O(n)，但是树太深dfs用recursion写会爆栈）如果weight可能为负数哪个更好？如果需要找到k top weight path需要怎么变？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Stack </t>
+  </si>
+  <si>
+    <t>带transa‍‌‌‍‍‍‌‌‌‌‌‌‍‍ction 数据库实现</t>
+  </si>
+  <si>
+    <t>Text justification</t>
+  </si>
+  <si>
+    <t>设计excel</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-316810-1-1.html</t>
+  </si>
+  <si>
+    <t>基本思路也是GeoHashing， 要求设计API给前端数据render 一个heat map</t>
+  </si>
+  <si>
+    <t>Given 2 sorted Arrays, Implement an iterator tha‍‌‌‍‍‍‌‌‌‌‌‌‍‍t will output the elements in 2 arrays in order.</t>
+  </si>
+  <si>
+    <t>word ladder 2</t>
+  </si>
+  <si>
+    <t>汉诺塔，打印移动的方法</t>
+  </si>
+  <si>
+    <t>最长递增子序列</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRU Cache </t>
+  </si>
+  <si>
+    <t>实现yelp的typeahead recommendation</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-466832-1-1.html</t>
+  </si>
+  <si>
+    <t>给一个M*N的网格，每一个格子都有一个distance的值，有些格子是block不能走。输入两个点，求最短路径</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-463567-1-1.html</t>
+  </si>
+  <si>
+    <t>LC 759</t>
+  </si>
+  <si>
+    <t>设计delay queue</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>设计一个facebook messenger</t>
+  </si>
+  <si>
+    <t>tiny url</t>
+  </si>
+  <si>
+    <t>没有要求最后一行“left justified and no extra space is inserted between words“， 要求写出完整的unit tests. 输入输出都是文件</t>
+  </si>
+  <si>
+    <t>先算一下qps和需要的storage，我当时忘了算task table需要的容量，设计了个sharded sql db, 结果后来在提示下算了一下这个storage的容量，发现只需要500MB，所以只需要一个内存的小storage就可以了</t>
+  </si>
+  <si>
+    <t>Permutations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -292,6 +444,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -318,12 +477,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -638,11 +798,651 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A40BB9-38C9-A64D-AEA5-7125CBB9C03A}">
-  <dimension ref="A1:G31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB1A0F4-0E7D-9F48-B258-9735D21B2FA2}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>716</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>238</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>155</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>146</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>347</v>
+      </c>
+      <c r="C16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908BC604-62DA-6E46-A0E1-E68B1EBAFB39}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{C378EBA9-C8FF-FD47-8511-EA7EBD12D37C}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{1B7D91CE-8A95-3D41-921A-7D6D5F50EFE7}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{856875AD-494D-F24F-8AC9-66F852CD72EE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9CB96A-AF90-6847-AB32-E99DC9E61C5B}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="52.83203125" customWidth="1"/>
+    <col min="3" max="3" width="52.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{D6CF1F1F-C776-0944-85F3-36AE7023AA8A}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{9F1BE6CE-9999-D34A-8D1C-44F8BA7272D3}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{F3438C7F-3009-DC49-A7FA-F75AF5E7C8CF}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{A4318E94-A33C-0949-99E9-7C7041E39151}"/>
+    <hyperlink ref="E4" r:id="rId5" xr:uid="{D6BC198C-3C38-234E-8FA2-9C0D8399F000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{C1758B11-D61B-EA48-BA44-166677EABC2F}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{B9F1DF0C-BCB8-2245-BC3F-CB29B8E1204A}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{134D977A-118B-4447-A0CC-43321EE9CD4F}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{63A38F7C-AD52-BA4E-A1B3-866E363656C5}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{2A54339B-8F92-C14B-B3B2-E628AA967668}"/>
+    <hyperlink ref="C3" r:id="rId11" xr:uid="{ADA42122-5DF1-9E40-87FF-9AB86A08D67A}"/>
+    <hyperlink ref="C12" r:id="rId12" xr:uid="{364800A7-BDD1-1144-AC1E-C93AB81DE87A}"/>
+    <hyperlink ref="D9" r:id="rId13" xr:uid="{93E7D4C9-1CC2-3142-9731-7A307B33A9C7}"/>
+    <hyperlink ref="D3" r:id="rId14" xr:uid="{900F70C6-9DDE-0843-A6F6-B31BF1113D3D}"/>
+    <hyperlink ref="C13" r:id="rId15" xr:uid="{9DEB7179-AA8F-7242-BBA6-1AE678553736}"/>
+    <hyperlink ref="C14" r:id="rId16" xr:uid="{5136F809-4078-0F48-B03D-319C2025BF10}"/>
+    <hyperlink ref="D6" r:id="rId17" xr:uid="{A820DF1C-9221-DB4A-9959-E57940B759AF}"/>
+    <hyperlink ref="C15" r:id="rId18" xr:uid="{74C455B3-EE49-0F4B-99F2-D2DECDB22014}"/>
+    <hyperlink ref="C16" r:id="rId19" xr:uid="{FB30A275-6C60-9848-9A3C-FD73A7417793}"/>
+    <hyperlink ref="C17" r:id="rId20" xr:uid="{8E5311CD-57D9-3649-9167-DA794EF9B76D}"/>
+    <hyperlink ref="E3" r:id="rId21" xr:uid="{5DC2DF0A-7DB5-EF47-BA82-1DFEB9E7416B}"/>
+    <hyperlink ref="F4" r:id="rId22" xr:uid="{EC9B82AB-5815-BD4A-8018-5C608D95DFF4}"/>
+    <hyperlink ref="F3" r:id="rId23" xr:uid="{95ECDDEF-9636-4941-9F4A-1C4FA5176031}"/>
+    <hyperlink ref="G3" r:id="rId24" xr:uid="{570FF375-1679-8542-991B-A2C902C406F6}"/>
+    <hyperlink ref="H3" r:id="rId25" xr:uid="{29CB5D72-9A30-F749-A13F-27B5CF73C9D5}"/>
+    <hyperlink ref="I3" r:id="rId26" xr:uid="{8F25FCB6-855E-B444-9B6B-9ACE24D27F1B}"/>
+    <hyperlink ref="D7" r:id="rId27" xr:uid="{E949AAA5-E237-D648-8095-860AF2C79FF5}"/>
+    <hyperlink ref="E7" r:id="rId28" xr:uid="{4B5B4F45-4676-CA4D-86C5-B432CCBB9822}"/>
+    <hyperlink ref="F7" r:id="rId29" xr:uid="{84B4AA63-8AD9-9445-BDE8-2B76DC9EDA6A}"/>
+    <hyperlink ref="E6" r:id="rId30" xr:uid="{7B7C65BC-3F2C-CE4A-B214-C5402C0FB7EC}"/>
+    <hyperlink ref="C2" r:id="rId31" xr:uid="{69B2635A-9B6E-F04C-A4DC-0FA855AEF941}"/>
+    <hyperlink ref="D5" r:id="rId32" xr:uid="{4DE832A3-77BB-D94B-8945-6C9349DEFF38}"/>
+    <hyperlink ref="C18" r:id="rId33" xr:uid="{3DFE07E8-3616-A747-9535-6880C6D543F0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A40BB9-38C9-A64D-AEA5-7125CBB9C03A}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,107 +1472,104 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2">
-        <v>238</v>
+        <v>735</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>127</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
+      <c r="A3" t="s">
+        <v>80</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4">
-        <v>716</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>642</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
+      <c r="A5" t="s">
+        <v>84</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>7</v>
+        <v>238</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>716</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
         <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="136" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>981</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>158</v>
+        <v>642</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>333</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -780,518 +1577,308 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>981</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>158</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>333</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15">
         <v>157</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
       <c r="D15">
         <v>2</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="D16">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>236</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>300</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>200</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26">
         <v>4</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>735</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>236</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <v>300</v>
-      </c>
-      <c r="C22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <v>200</v>
-      </c>
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27">
         <v>935</v>
       </c>
-      <c r="C25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B26">
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28">
         <v>239</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    </row>
+    <row r="30" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <v>8</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31">
+      <c r="D33">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" xr:uid="{D3E215AF-75CB-3E4C-B5DF-E53CF2D64914}"/>
-    <hyperlink ref="F12" r:id="rId2" xr:uid="{27E97AFA-12E2-EB44-92CC-ACE61B69882B}"/>
-    <hyperlink ref="E12" r:id="rId3" xr:uid="{0B37C351-976A-844F-B55C-A0414D8C6587}"/>
-    <hyperlink ref="E13" r:id="rId4" xr:uid="{DA022242-8963-5B40-A66B-9EA43058038E}"/>
-    <hyperlink ref="E15" r:id="rId5" xr:uid="{71EC1142-3BF8-B047-B5ED-7903B52449D4}"/>
-    <hyperlink ref="E14" r:id="rId6" xr:uid="{8C0AF4B1-C50F-0D40-93A3-FCC209B9A9A7}"/>
-    <hyperlink ref="E16" r:id="rId7" xr:uid="{00F0F239-D3D5-5C48-AD5B-C18AB409F297}"/>
-    <hyperlink ref="F17" r:id="rId8" xr:uid="{D65D3CEA-E856-A544-BE82-7FF92AC31440}"/>
-    <hyperlink ref="E17" r:id="rId9" xr:uid="{F17448B4-4A14-C840-B7D0-BE243505FC42}"/>
-    <hyperlink ref="F16" r:id="rId10" xr:uid="{69ECDFE2-FD02-B644-B1D7-6977D76BFC8E}"/>
-    <hyperlink ref="E20" r:id="rId11" xr:uid="{60A4A4A5-CF20-F740-ABB6-BAACA492DAED}"/>
-    <hyperlink ref="G16" r:id="rId12" xr:uid="{706702C2-1557-1C40-A5C1-A086263A7846}"/>
-    <hyperlink ref="E23" r:id="rId13" xr:uid="{741B2533-570B-0745-B50C-D7878ADB5135}"/>
-    <hyperlink ref="E27" r:id="rId14" xr:uid="{575D809A-FBA6-BD42-8D2C-9E66D145964B}"/>
-    <hyperlink ref="E28" r:id="rId15" xr:uid="{0CC9724E-BCF0-5145-A9F1-32375015C40E}"/>
-    <hyperlink ref="E29" r:id="rId16" xr:uid="{D1574C09-D35A-0144-8911-5F491503A0B3}"/>
-    <hyperlink ref="E30" r:id="rId17" xr:uid="{DCB6AD90-704A-F949-90CE-D5B30B32224A}"/>
-    <hyperlink ref="G12" r:id="rId18" xr:uid="{43845907-40B3-6649-BF8E-520789A2D784}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9CB96A-AF90-6847-AB32-E99DC9E61C5B}">
-  <dimension ref="A1:G16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="52.83203125" customWidth="1"/>
-    <col min="3" max="3" width="52.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{D6CF1F1F-C776-0944-85F3-36AE7023AA8A}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{9F1BE6CE-9999-D34A-8D1C-44F8BA7272D3}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{F3438C7F-3009-DC49-A7FA-F75AF5E7C8CF}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{A4318E94-A33C-0949-99E9-7C7041E39151}"/>
-    <hyperlink ref="E2" r:id="rId5" xr:uid="{D6BC198C-3C38-234E-8FA2-9C0D8399F000}"/>
-    <hyperlink ref="C5" r:id="rId6" xr:uid="{C1758B11-D61B-EA48-BA44-166677EABC2F}"/>
-    <hyperlink ref="C6" r:id="rId7" xr:uid="{B9F1DF0C-BCB8-2245-BC3F-CB29B8E1204A}"/>
-    <hyperlink ref="C7" r:id="rId8" xr:uid="{134D977A-118B-4447-A0CC-43321EE9CD4F}"/>
-    <hyperlink ref="C8" r:id="rId9" xr:uid="{63A38F7C-AD52-BA4E-A1B3-866E363656C5}"/>
-    <hyperlink ref="C9" r:id="rId10" xr:uid="{2A54339B-8F92-C14B-B3B2-E628AA967668}"/>
-    <hyperlink ref="C10" r:id="rId11" xr:uid="{ADA42122-5DF1-9E40-87FF-9AB86A08D67A}"/>
-    <hyperlink ref="C11" r:id="rId12" xr:uid="{364800A7-BDD1-1144-AC1E-C93AB81DE87A}"/>
-    <hyperlink ref="D7" r:id="rId13" xr:uid="{93E7D4C9-1CC2-3142-9731-7A307B33A9C7}"/>
-    <hyperlink ref="D10" r:id="rId14" xr:uid="{900F70C6-9DDE-0843-A6F6-B31BF1113D3D}"/>
-    <hyperlink ref="C12" r:id="rId15" xr:uid="{9DEB7179-AA8F-7242-BBA6-1AE678553736}"/>
-    <hyperlink ref="C13" r:id="rId16" xr:uid="{5136F809-4078-0F48-B03D-319C2025BF10}"/>
-    <hyperlink ref="D4" r:id="rId17" xr:uid="{A820DF1C-9221-DB4A-9959-E57940B759AF}"/>
-    <hyperlink ref="C14" r:id="rId18" xr:uid="{74C455B3-EE49-0F4B-99F2-D2DECDB22014}"/>
-    <hyperlink ref="C15" r:id="rId19" xr:uid="{FB30A275-6C60-9848-9A3C-FD73A7417793}"/>
-    <hyperlink ref="C16" r:id="rId20" xr:uid="{8E5311CD-57D9-3649-9167-DA794EF9B76D}"/>
-    <hyperlink ref="E10" r:id="rId21" xr:uid="{5DC2DF0A-7DB5-EF47-BA82-1DFEB9E7416B}"/>
-    <hyperlink ref="F2" r:id="rId22" xr:uid="{EC9B82AB-5815-BD4A-8018-5C608D95DFF4}"/>
-    <hyperlink ref="F10" r:id="rId23" xr:uid="{95ECDDEF-9636-4941-9F4A-1C4FA5176031}"/>
-    <hyperlink ref="G10" r:id="rId24" xr:uid="{570FF375-1679-8542-991B-A2C902C406F6}"/>
+    <hyperlink ref="E12" r:id="rId1" xr:uid="{D3E215AF-75CB-3E4C-B5DF-E53CF2D64914}"/>
+    <hyperlink ref="F16" r:id="rId2" xr:uid="{27E97AFA-12E2-EB44-92CC-ACE61B69882B}"/>
+    <hyperlink ref="E16" r:id="rId3" xr:uid="{0B37C351-976A-844F-B55C-A0414D8C6587}"/>
+    <hyperlink ref="E17" r:id="rId4" xr:uid="{DA022242-8963-5B40-A66B-9EA43058038E}"/>
+    <hyperlink ref="E18" r:id="rId5" xr:uid="{71EC1142-3BF8-B047-B5ED-7903B52449D4}"/>
+    <hyperlink ref="E19" r:id="rId6" xr:uid="{00F0F239-D3D5-5C48-AD5B-C18AB409F297}"/>
+    <hyperlink ref="F20" r:id="rId7" xr:uid="{D65D3CEA-E856-A544-BE82-7FF92AC31440}"/>
+    <hyperlink ref="E20" r:id="rId8" xr:uid="{F17448B4-4A14-C840-B7D0-BE243505FC42}"/>
+    <hyperlink ref="F19" r:id="rId9" xr:uid="{69ECDFE2-FD02-B644-B1D7-6977D76BFC8E}"/>
+    <hyperlink ref="E22" r:id="rId10" xr:uid="{60A4A4A5-CF20-F740-ABB6-BAACA492DAED}"/>
+    <hyperlink ref="G19" r:id="rId11" xr:uid="{706702C2-1557-1C40-A5C1-A086263A7846}"/>
+    <hyperlink ref="E25" r:id="rId12" xr:uid="{741B2533-570B-0745-B50C-D7878ADB5135}"/>
+    <hyperlink ref="E29" r:id="rId13" xr:uid="{575D809A-FBA6-BD42-8D2C-9E66D145964B}"/>
+    <hyperlink ref="E30" r:id="rId14" xr:uid="{0CC9724E-BCF0-5145-A9F1-32375015C40E}"/>
+    <hyperlink ref="E31" r:id="rId15" xr:uid="{D1574C09-D35A-0144-8911-5F491503A0B3}"/>
+    <hyperlink ref="E32" r:id="rId16" xr:uid="{DCB6AD90-704A-F949-90CE-D5B30B32224A}"/>
+    <hyperlink ref="G16" r:id="rId17" xr:uid="{43845907-40B3-6649-BF8E-520789A2D784}"/>
+    <hyperlink ref="E3" r:id="rId18" xr:uid="{70449B5E-E178-234B-9A9A-2097E32A3DDB}"/>
+    <hyperlink ref="E4" r:id="rId19" xr:uid="{E49E9C79-2FC1-2547-8634-8A71CE001056}"/>
+    <hyperlink ref="F3" r:id="rId20" xr:uid="{DDEBEE66-9048-DC48-BBD4-80B5591EB218}"/>
+    <hyperlink ref="E5" r:id="rId21" xr:uid="{E48A5105-24FE-0E42-B260-546593BB59B1}"/>
+    <hyperlink ref="F22" r:id="rId22" xr:uid="{62E881F2-A911-5A46-85E8-0DFD2ABE6BBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/company/lyft/lyft-freq.xlsx
+++ b/company/lyft/lyft-freq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/lyft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7791DC1D-4E30-594F-A946-58C0226A62F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72CAD58-4D1D-7545-85AD-8D04BD9A8484}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="460" windowWidth="16920" windowHeight="14180" xr2:uid="{E083BCA1-116D-FE4F-8F8A-D54DCBD9886C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1" xr2:uid="{E083BCA1-116D-FE4F-8F8A-D54DCBD9886C}"/>
   </bookViews>
   <sheets>
     <sheet name="Onsite" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="131">
   <si>
     <t>Description</t>
   </si>
@@ -426,6 +426,9 @@
   </si>
   <si>
     <t>Permutations</t>
+  </si>
+  <si>
+    <t>https://github.com/suhassatish/algorithms/blob/master/src/main/java/com/qc/Spreadsheet.java</t>
   </si>
 </sst>
 </file>
@@ -801,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB1A0F4-0E7D-9F48-B258-9735D21B2FA2}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -993,13 +996,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908BC604-62DA-6E46-A0E1-E68B1EBAFB39}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1085,6 +1089,9 @@
       <c r="C7" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1099,6 +1106,7 @@
     <hyperlink ref="C3" r:id="rId1" xr:uid="{C378EBA9-C8FF-FD47-8511-EA7EBD12D37C}"/>
     <hyperlink ref="C7" r:id="rId2" xr:uid="{1B7D91CE-8A95-3D41-921A-7D6D5F50EFE7}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{856875AD-494D-F24F-8AC9-66F852CD72EE}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{04D8FB50-4F44-384C-A9B2-EA74D0313830}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1108,7 +1116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9CB96A-AF90-6847-AB32-E99DC9E61C5B}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>

--- a/company/lyft/lyft-freq.xlsx
+++ b/company/lyft/lyft-freq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/lyft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72CAD58-4D1D-7545-85AD-8D04BD9A8484}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65C456D-20DC-E540-AC1B-301658EE51A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1" xr2:uid="{E083BCA1-116D-FE4F-8F8A-D54DCBD9886C}"/>
+    <workbookView xWindow="72720" yWindow="7500" windowWidth="12840" windowHeight="13820" xr2:uid="{E083BCA1-116D-FE4F-8F8A-D54DCBD9886C}"/>
   </bookViews>
   <sheets>
     <sheet name="Onsite" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="139">
   <si>
     <t>Description</t>
   </si>
@@ -429,13 +429,37 @@
   </si>
   <si>
     <t>https://github.com/suhassatish/algorithms/blob/master/src/main/java/com/qc/Spreadsheet.java</t>
+  </si>
+  <si>
+    <t>http://www.manongjc.com/article/27713.html</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/java-program-for-tower-of-hanoi/</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>https://medium.com/@narengowda/uber-system-design-8b2bc95e2cfe</t>
+  </si>
+  <si>
+    <t>https://www.jiuzhang.com/qa/4986/</t>
+  </si>
+  <si>
+    <t>https://www.educative.io/courses/grokking-the-system-design-interview/m2G48X18NDO</t>
+  </si>
+  <si>
+    <t>https://www.educative.io/courses/grokking-the-system-design-interview/B8R22v0wqJo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -454,6 +478,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -480,13 +511,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -804,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB1A0F4-0E7D-9F48-B258-9735D21B2FA2}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -889,14 +921,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="B8" s="4">
+        <v>124</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>105</v>
       </c>
     </row>
@@ -926,12 +964,24 @@
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="E11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D12">
+      <c r="B12" s="3">
+        <v>300</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="3">
         <v>1</v>
       </c>
     </row>
@@ -976,18 +1026,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17">
+    <row r="17" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="3">
         <v>46</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{86D295BF-0045-D445-A60F-0FA054756534}"/>
+    <hyperlink ref="F11" r:id="rId2" xr:uid="{54931C6E-815D-D54A-9EC5-ED9B2A9E51F7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -996,7 +1050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908BC604-62DA-6E46-A0E1-E68B1EBAFB39}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1117,7 +1171,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1269,7 +1323,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B9">
@@ -1280,6 +1334,12 @@
       </c>
       <c r="D9" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1314,6 +1374,9 @@
       <c r="C12" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1395,6 +1458,9 @@
       </c>
       <c r="B20">
         <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1440,6 +1506,10 @@
     <hyperlink ref="C2" r:id="rId31" xr:uid="{69B2635A-9B6E-F04C-A4DC-0FA855AEF941}"/>
     <hyperlink ref="D5" r:id="rId32" xr:uid="{4DE832A3-77BB-D94B-8945-6C9349DEFF38}"/>
     <hyperlink ref="C18" r:id="rId33" xr:uid="{3DFE07E8-3616-A747-9535-6880C6D543F0}"/>
+    <hyperlink ref="E9" r:id="rId34" xr:uid="{E3CE3166-CDF2-F040-B12A-A9369E8AEF4B}"/>
+    <hyperlink ref="F9" r:id="rId35" xr:uid="{FA18F428-4096-4F44-AAC4-55925BF8E64D}"/>
+    <hyperlink ref="D12" r:id="rId36" xr:uid="{3C40A769-E37A-AD4A-BB41-6B8A93F1D466}"/>
+    <hyperlink ref="C20" r:id="rId37" xr:uid="{CDC4BD81-CAE4-BA44-8031-E6AC2DBAE32F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1455,7 +1525,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="46.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.1640625" customWidth="1"/>
     <col min="6" max="6" width="45.33203125" customWidth="1"/>
@@ -1819,7 +1889,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="153" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>

--- a/company/lyft/lyft-freq.xlsx
+++ b/company/lyft/lyft-freq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/lyft/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\interview\company\lyft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65C456D-20DC-E540-AC1B-301658EE51A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA49CCE-C650-4690-84A4-322A41253F89}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72720" yWindow="7500" windowWidth="12840" windowHeight="13820" xr2:uid="{E083BCA1-116D-FE4F-8F8A-D54DCBD9886C}"/>
+    <workbookView xWindow="-28275" yWindow="435" windowWidth="14670" windowHeight="15045" activeTab="2" xr2:uid="{E083BCA1-116D-FE4F-8F8A-D54DCBD9886C}"/>
   </bookViews>
   <sheets>
     <sheet name="Onsite" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="141">
   <si>
     <t>Description</t>
   </si>
@@ -453,6 +453,12 @@
   </si>
   <si>
     <t>https://www.educative.io/courses/grokking-the-system-design-interview/B8R22v0wqJo</t>
+  </si>
+  <si>
+    <t>Accounts Merge</t>
+  </si>
+  <si>
+    <t>https://eng.lyft.com/how-lyft-creates-hyper-accurate-maps-from-open-source-maps-and-real-time-data-8dcf9abdd46a</t>
   </si>
 </sst>
 </file>
@@ -834,25 +840,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB1A0F4-0E7D-9F48-B258-9735D21B2FA2}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -869,178 +875,189 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3">
+        <v>721</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>91</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>716</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>5</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>101</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>102</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>238</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>104</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B9" s="4">
         <v>124</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>155</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>106</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>112</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>114</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B13" s="3">
         <v>300</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>146</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>116</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>119</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>123</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>347</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>124</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="3">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
         <v>46</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D18" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" xr:uid="{86D295BF-0045-D445-A60F-0FA054756534}"/>
-    <hyperlink ref="F11" r:id="rId2" xr:uid="{54931C6E-815D-D54A-9EC5-ED9B2A9E51F7}"/>
+    <hyperlink ref="E12" r:id="rId1" xr:uid="{86D295BF-0045-D445-A60F-0FA054756534}"/>
+    <hyperlink ref="F12" r:id="rId2" xr:uid="{54931C6E-815D-D54A-9EC5-ED9B2A9E51F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1051,17 +1068,17 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1072,18 +1089,18 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>96</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1097,7 +1114,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1114,7 +1131,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>107</v>
       </c>
@@ -1122,7 +1139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -1133,7 +1150,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -1147,7 +1164,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -1170,17 +1187,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9CB96A-AF90-6847-AB32-E99DC9E61C5B}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.83203125" customWidth="1"/>
+    <col min="1" max="1" width="52.875" customWidth="1"/>
     <col min="3" max="3" width="52.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +1208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -1202,12 +1219,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>43</v>
@@ -1234,7 +1251,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1254,7 +1271,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1271,7 +1288,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -1291,7 +1308,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1311,7 +1328,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1322,7 +1339,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
@@ -1341,8 +1358,11 @@
       <c r="F9" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G9" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1353,7 +1373,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>90</v>
       </c>
@@ -1364,7 +1384,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1378,7 +1398,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -1389,7 +1409,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -1400,7 +1420,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1411,7 +1431,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -1422,7 +1442,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -1433,7 +1453,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>117</v>
       </c>
@@ -1444,7 +1464,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -1452,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>125</v>
       </c>
@@ -1463,7 +1483,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -1510,6 +1530,7 @@
     <hyperlink ref="F9" r:id="rId35" xr:uid="{FA18F428-4096-4F44-AAC4-55925BF8E64D}"/>
     <hyperlink ref="D12" r:id="rId36" xr:uid="{3C40A769-E37A-AD4A-BB41-6B8A93F1D466}"/>
     <hyperlink ref="C20" r:id="rId37" xr:uid="{CDC4BD81-CAE4-BA44-8031-E6AC2DBAE32F}"/>
+    <hyperlink ref="G9" r:id="rId38" xr:uid="{6FBB936B-E681-3743-8FBE-BB7AA55F77B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1523,15 +1544,15 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" customWidth="1"/>
-    <col min="6" max="6" width="45.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="46.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.125" customWidth="1"/>
+    <col min="6" max="6" width="45.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1548,7 +1569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>735</v>
       </c>
@@ -1559,7 +1580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -1573,7 +1594,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>155</v>
       </c>
@@ -1587,7 +1608,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -1598,7 +1619,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>238</v>
       </c>
@@ -1609,7 +1630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>127</v>
       </c>
@@ -1620,7 +1641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>716</v>
       </c>
@@ -1631,7 +1652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>642</v>
       </c>
@@ -1642,7 +1663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1653,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>68</v>
       </c>
@@ -1664,7 +1685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1684,7 +1705,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>158</v>
       </c>
@@ -1695,7 +1716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>333</v>
       </c>
@@ -1706,7 +1727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>157</v>
       </c>
@@ -1717,7 +1738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1734,7 +1755,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1745,7 +1766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1756,7 +1777,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1773,7 +1794,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1787,7 +1808,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>236</v>
       </c>
@@ -1798,7 +1819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1812,7 +1833,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>10</v>
       </c>
@@ -1823,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>300</v>
       </c>
@@ -1834,7 +1855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -1845,7 +1866,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>200</v>
       </c>
@@ -1856,7 +1877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>935</v>
       </c>
@@ -1867,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>239</v>
       </c>
@@ -1878,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -1889,7 +1910,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
@@ -1900,7 +1921,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -1911,7 +1932,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -1922,7 +1943,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>8</v>
       </c>
